--- a/Tables/did_reg_imss.xlsx
+++ b/Tables/did_reg_imss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D354D-C23F-4324-AE90-6EA82FAC0FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6857FE-44F3-47F2-A368-408DEF96FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
+    <workbookView xWindow="28680" yWindow="-6990" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_imss" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Observations</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>[2-50]</t>
+  </si>
+  <si>
+    <t>$H_0 : \alpha = 0$ (p-value)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -182,6 +185,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,6 +901,23 @@
           </cell>
           <cell r="K32" t="str">
             <v>775</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>9.1e-214</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>8.0e-193</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>0.000000050</v>
           </cell>
         </row>
       </sheetData>
@@ -1199,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22966959-63DB-41F0-96C7-D2C53CEFC3BA}">
-  <dimension ref="A2:O27"/>
+  <dimension ref="A2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O26"/>
+      <selection activeCell="A2" sqref="A2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,30 +1237,30 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -2119,102 +2143,140 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
+      <c r="A25" s="9" t="str">
         <f>[1]did_reg_imss!A30</f>
         <v>R-sq</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="10" t="str">
         <f>[1]did_reg_imss!B30</f>
         <v>0.170</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="10" t="str">
         <f>[1]did_reg_imss!C30</f>
         <v>0.186</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="str">
         <f>[1]did_reg_imss!D30</f>
         <v>0.174</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="10" t="str">
         <f>[1]did_reg_imss!E30</f>
         <v>0.182</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="str">
         <f>[1]did_reg_imss!F30</f>
         <v>0.162</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="10" t="str">
         <f>[1]did_reg_imss!G30</f>
         <v>0.177</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="str">
         <f>[1]did_reg_imss!H30</f>
         <v>0.268</v>
       </c>
-      <c r="L25" s="3" t="str">
+      <c r="L25" s="10" t="str">
         <f>[1]did_reg_imss!I30</f>
         <v>0.274</v>
       </c>
-      <c r="N25" s="3" t="str">
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="str">
         <f>[1]did_reg_imss!J30</f>
         <v>0.257</v>
       </c>
-      <c r="O25" s="3" t="str">
+      <c r="O25" s="10" t="str">
         <f>[1]did_reg_imss!K30</f>
         <v>0.274</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="str">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="str">
         <f>[1]did_reg_imss!A31</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="10" t="str">
         <f>[1]did_reg_imss!B31</f>
         <v>6.04</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="10" t="str">
         <f>[1]did_reg_imss!C31</f>
         <v>6.04</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="str">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="str">
         <f>[1]did_reg_imss!D31</f>
         <v>3.05</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="F26" s="10" t="str">
         <f>[1]did_reg_imss!E31</f>
         <v>3.04</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="str">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="str">
         <f>[1]did_reg_imss!F31</f>
         <v>5.36</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="10" t="str">
         <f>[1]did_reg_imss!G31</f>
         <v>5.36</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="str">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="str">
         <f>[1]did_reg_imss!H31</f>
         <v>6.17</v>
       </c>
-      <c r="L26" s="6" t="str">
+      <c r="L26" s="10" t="str">
         <f>[1]did_reg_imss!I31</f>
         <v>6.16</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="str">
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="str">
         <f>[1]did_reg_imss!J31</f>
         <v>7.60</v>
       </c>
-      <c r="O26" s="6" t="str">
+      <c r="O26" s="10" t="str">
         <f>[1]did_reg_imss!K31</f>
         <v>7.60</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <f>ROUND([1]did_reg_imss!C33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <f>ROUND([1]did_reg_imss!E33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <f>ROUND([1]did_reg_imss!G33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <f>ROUND([1]did_reg_imss!I33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <f>ROUND([1]did_reg_imss!K33,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
